--- a/IT342-HaponGO-GanttChart.xlsx
+++ b/IT342-HaponGO-GanttChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\L22X07W19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L22X07W19\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EB58F5E-C85C-4818-816A-2A78A625EF00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E60AB9B-2EAC-4B9C-B34F-4D5EC7922ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{6C8612AF-AC9F-47E5-97F5-BEE5B3F3935B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Members:</t>
   </si>
@@ -81,64 +81,142 @@
     <t>May</t>
   </si>
   <si>
-    <t>1. Gantt Chart Creation</t>
-  </si>
-  <si>
-    <t>Felraine Kyle Cataos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Functional &amp; Non-Functional Requirements  </t>
-  </si>
-  <si>
-    <t>Felraine Kyle Cataos, Kinka Sugimoto, Rei Samson Agravante</t>
-  </si>
-  <si>
-    <t>3. ERD</t>
-  </si>
-  <si>
     <t>February</t>
   </si>
   <si>
-    <t>4. Wireframe</t>
-  </si>
-  <si>
-    <t>4.1 Wireframe Web</t>
-  </si>
-  <si>
-    <t>4.1.2 Create Account Wireframe</t>
-  </si>
-  <si>
-    <t>4.1.3 Dashboard Wireframe</t>
-  </si>
-  <si>
-    <t>4.1.4 Profile Wireframe</t>
-  </si>
-  <si>
-    <t>Kinka Sugimoto</t>
-  </si>
-  <si>
-    <t>2/30/2025</t>
-  </si>
-  <si>
-    <t>4.2 Mobile Wireframe</t>
-  </si>
-  <si>
-    <t>4.1.1 Login Wireframe</t>
-  </si>
-  <si>
-    <t>4.2.1 Login Wireframe</t>
-  </si>
-  <si>
-    <t>4.2.2 Create Account Wireframe</t>
-  </si>
-  <si>
-    <t>4.2.3 Dashboard Wireframe</t>
-  </si>
-  <si>
-    <t>4.2.4 Profile Wireframe</t>
-  </si>
-  <si>
-    <t>Rei Samson Agravante</t>
+    <t>1.0 Concept</t>
+  </si>
+  <si>
+    <t>1.1 Define Project Scopes &amp; Objectives</t>
+  </si>
+  <si>
+    <t>1.2 Define User Requirements</t>
+  </si>
+  <si>
+    <t>1.2.1 Define Functional Requirements</t>
+  </si>
+  <si>
+    <t>1.2.2 Define Non-Functional Requirements</t>
+  </si>
+  <si>
+    <t>1.3 Develop Project Plan</t>
+  </si>
+  <si>
+    <t>1.4 Brief Web Development Team</t>
+  </si>
+  <si>
+    <t>2.0 Website Design</t>
+  </si>
+  <si>
+    <t>2.1 Create Wireframes</t>
+  </si>
+  <si>
+    <t>2.1.1 Design wireframe for user dashboard</t>
+  </si>
+  <si>
+    <t>2.1.2 Design wireframe for lessons</t>
+  </si>
+  <si>
+    <t>2.1.3 Design wireframe for English-Japanese Dictionary</t>
+  </si>
+  <si>
+    <t>2.1.4 Design calligraphy practice wireframe</t>
+  </si>
+  <si>
+    <t>2.1.5 Design wireframe for leaderboard</t>
+  </si>
+  <si>
+    <t>2.1.6 Design wireframe for payment module</t>
+  </si>
+  <si>
+    <t>2.2 Create UI Screens</t>
+  </si>
+  <si>
+    <t>2.2.1 Design user dashboard UI</t>
+  </si>
+  <si>
+    <t>2.2.2 Design user dashboard UI</t>
+  </si>
+  <si>
+    <t>2.2.3 Design English-Japanese dictionary UI</t>
+  </si>
+  <si>
+    <t>2.2.4 Design calligraphy practice UI</t>
+  </si>
+  <si>
+    <t>2.2.5 Design leaderboard UI</t>
+  </si>
+  <si>
+    <t>2.2.6 Design payment module UI</t>
+  </si>
+  <si>
+    <t>3.0 Website Development</t>
+  </si>
+  <si>
+    <t>3.1 Backend Development</t>
+  </si>
+  <si>
+    <t>3.1.1 Setup Database</t>
+  </si>
+  <si>
+    <t>3.1.2 Setup authentication system</t>
+  </si>
+  <si>
+    <t>3.1.3 Develop login/signup</t>
+  </si>
+  <si>
+    <t>3.1.4 Develop user progress tracking</t>
+  </si>
+  <si>
+    <t>3.1.5 Develop leaderboard system</t>
+  </si>
+  <si>
+    <t>3.1.6 Integrate payment module</t>
+  </si>
+  <si>
+    <t>3.2 Frontend Development</t>
+  </si>
+  <si>
+    <t>3.2.1 Develop UI for login/signup</t>
+  </si>
+  <si>
+    <t>3.2.2 Develop user dashboard UI</t>
+  </si>
+  <si>
+    <t>3.2.3 Develop lesson screen UI</t>
+  </si>
+  <si>
+    <t>3.2.4 Develop dictionary UI</t>
+  </si>
+  <si>
+    <t>3.2.5 Develop calligraphy practice UI</t>
+  </si>
+  <si>
+    <t>3.2.6 Develop leaderboardUI</t>
+  </si>
+  <si>
+    <t>3.2.7 Develop payment UI</t>
+  </si>
+  <si>
+    <t>4.0 Roll out</t>
+  </si>
+  <si>
+    <t>4.1 Deploy web and mobile application</t>
+  </si>
+  <si>
+    <t>4.2 Test Android Compatibility</t>
+  </si>
+  <si>
+    <t>4.3 Test Backend Compatibility</t>
+  </si>
+  <si>
+    <t>5.0 Support</t>
+  </si>
+  <si>
+    <t>5.1 Monitor System Performance</t>
+  </si>
+  <si>
+    <t>5.2 Enhance Security &amp; Privacy measures</t>
   </si>
 </sst>
 </file>
@@ -169,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,32 +328,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,15 +667,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE28BF-3653-487B-ABAE-D8576A0DB2DF}">
-  <dimension ref="A2:U44"/>
+  <dimension ref="A2:U67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.5703125" customWidth="1"/>
   </cols>
@@ -635,13 +718,13 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -658,30 +741,30 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14" t="s">
+      <c r="F12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13" t="s">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -711,65 +794,57 @@
       <c r="I13" s="7">
         <v>4</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <v>1</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <v>2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <v>3</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="11">
         <v>4</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <v>1</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>2</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <v>3</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <v>4</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="11">
         <v>1</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="11">
         <v>2</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="11">
         <v>3</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8">
-        <v>45726</v>
-      </c>
-      <c r="D14" s="8">
-        <v>45726</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -785,745 +860,1313 @@
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8">
-        <v>45726</v>
-      </c>
-      <c r="D15" s="8">
-        <v>45726</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
       <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="8">
-        <v>45702</v>
-      </c>
-      <c r="D16" s="8">
-        <v>45702</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="5"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>24</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
       <c r="U17" s="5"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>25</v>
+      <c r="A18" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
       <c r="U18" s="5"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="8">
-        <v>45705</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
       <c r="U19" s="5"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="8">
-        <v>45705</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8">
-        <v>45705</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
       <c r="U21" s="5"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8">
-        <v>45705</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="5"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>31</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
       <c r="U23" s="5"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="8">
-        <v>45733</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
       <c r="U24" s="5"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="8">
-        <v>45733</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
       <c r="U25" s="5"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="8">
-        <v>45733</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="14"/>
       <c r="U26" s="5"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8">
-        <v>45733</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="14"/>
       <c r="U27" s="5"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="20"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="14"/>
       <c r="U28" s="5"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="20"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="14"/>
       <c r="U29" s="5"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="A30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
+      <c r="A31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="A32" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
       <c r="Q37" s="15"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
       <c r="Q38" s="15"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
       <c r="Q40" s="15"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="23"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="23"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="23"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="23"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="23"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="23"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="23"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:M12"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1531,6 +2174,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2d200a8f-da15-4041-84a3-84e619b2b443" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090963452E5C2C042B041AF470BA93640" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ca0b7bbaf8d0b986f16e13111c0a7af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2d200a8f-da15-4041-84a3-84e619b2b443" xmlns:ns4="f1e22084-4c76-4da6-a67a-6aa4f52fcf92" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fa522124edc98f7e5221c7cb00ca67" ns3:_="" ns4:_="">
     <xsd:import namespace="2d200a8f-da15-4041-84a3-84e619b2b443"/>
@@ -1777,24 +2437,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2d200a8f-da15-4041-84a3-84e619b2b443" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2d200a8f-da15-4041-84a3-84e619b2b443"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f1e22084-4c76-4da6-a67a-6aa4f52fcf92"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF2035A-45FE-41E6-A8D6-A6BCC32E3F66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1811,29 +2479,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF91549C-21D9-41B9-BD65-69654B49B349}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f1e22084-4c76-4da6-a67a-6aa4f52fcf92"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2d200a8f-da15-4041-84a3-84e619b2b443"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE939D89-B64E-4D9C-83A0-BE33138990E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>